--- a/Excel/ServerConfig@c.xlsx
+++ b/Excel/ServerConfig@c.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20380"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitProject\ET_Framwork\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GenshinGamePlay\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5F1CD4-EF01-4292-A3C1-702DF13F97F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917F1461-F44F-4B95-A84E-73B9E7990FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-15" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ServerConfig" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>#</t>
   </si>
@@ -49,22 +49,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>UpdateListUrl</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>RouterListUrl</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ResUrl</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestUpdateListUrl</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>EnvId</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -81,22 +69,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>更新列表cdn地址</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>路由cdn地址</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>热更资源cdn地址</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试更新列表cdn地址</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>服务器类型</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -117,19 +93,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>http://127.0.0.1:8081/cdn_test</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>172.22.213.58:10002</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>http://172.22.213.58:8081/cdn</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://172.22.213.58:8081/cdn_test</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -529,34 +497,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:L7"/>
+  <dimension ref="C2:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="19.25" style="2" customWidth="1"/>
-    <col min="10" max="10" width="19.75" style="2" customWidth="1"/>
-    <col min="11" max="11" width="13.125" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="21.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="35.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -567,28 +532,19 @@
         <v>5</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
@@ -597,7 +553,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>8</v>
@@ -606,19 +562,10 @@
         <v>9</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
@@ -629,93 +576,66 @@
       <c r="F5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>13</v>
+      <c r="H5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="6" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="5">
+        <v>18</v>
+      </c>
+      <c r="H6" s="5">
         <v>1</v>
       </c>
-      <c r="L6" s="5">
+      <c r="I6" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="5">
+        <v>20</v>
+      </c>
+      <c r="H7" s="5">
         <v>1</v>
       </c>
-      <c r="L7" s="5">
+      <c r="I7" s="5">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H6" r:id="rId1" xr:uid="{DBDA0032-237F-4A3B-9A67-F3A84C7D4085}"/>
+    <hyperlink ref="G6" r:id="rId1" xr:uid="{DBDA0032-237F-4A3B-9A67-F3A84C7D4085}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
